--- a/perf calculations.xlsx
+++ b/perf calculations.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\PerfProject\PerfProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijsemin/WorkFolder/Performance/ProjBuff/PerfProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0276200C-93D7-4216-B376-76AE778DB23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD3AEE6-3865-6344-9E15-9EED42A9D1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ultimate Thread Group" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Интенсивность</t>
   </si>
@@ -80,12 +88,42 @@
   <si>
     <t>Ступенчетая</t>
   </si>
+  <si>
+    <t>Initial Delay</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Hold Load</t>
+  </si>
+  <si>
+    <t>Shut Down Time</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>Столбец3</t>
+  </si>
+  <si>
+    <t>Столбец4</t>
+  </si>
+  <si>
+    <t>Время удержания нагрузки</t>
+  </si>
+  <si>
+    <t>Общая длительность теста</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +153,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -169,7 +215,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,14 +240,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Контрольная ячейка" xfId="2" builtinId="23"/>
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Пояснение" xfId="3" builtinId="53"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +356,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DB3CCB5-6D61-3C41-8248-8348E1BB57B3}" name="Таблица1" displayName="Таблица1" ref="C5:F38" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="C5:F38" xr:uid="{1DB3CCB5-6D61-3C41-8248-8348E1BB57B3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3A364823-56D4-0844-8D58-03BE0F6BA7EB}" name="Столбец1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{6A2AD248-9A9A-FC4A-B3D8-544A4CD5A0D1}" name="Столбец2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CBAF78D3-9352-5A4A-81D5-ABDF5B3DAF98}" name="Столбец3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{29FC4B20-1F52-BD48-AB43-EA4F4A8961C3}" name="Столбец4" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,25 +636,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="139" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -513,7 +670,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -523,7 +680,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -546,7 +703,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -575,7 +732,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -604,7 +761,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -633,7 +790,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -662,7 +819,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -690,16 +847,16 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
@@ -722,7 +879,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -757,7 +914,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -786,7 +943,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -815,7 +972,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -844,7 +1001,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -874,4 +1031,2417 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC460A58-C005-F043-B821-E7661614BE14}">
+  <dimension ref="B5:H370"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>300</v>
+      </c>
+      <c r="E7" s="11">
+        <v>7200</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <f>C7+D7+$H$6</f>
+        <v>600</v>
+      </c>
+      <c r="D8" s="11">
+        <v>300</v>
+      </c>
+      <c r="E8" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>6300</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" ref="C9:C19" si="0">C8+D8+$H$6</f>
+        <v>1200</v>
+      </c>
+      <c r="D9" s="11">
+        <v>300</v>
+      </c>
+      <c r="E9" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>5700</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="H9">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="D10" s="11">
+        <v>300</v>
+      </c>
+      <c r="E10" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>5100</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D11" s="11">
+        <v>300</v>
+      </c>
+      <c r="E11" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>4500</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="D12" s="11">
+        <v>300</v>
+      </c>
+      <c r="E12" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>3900</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="D13" s="11">
+        <v>300</v>
+      </c>
+      <c r="E13" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>3300</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="0"/>
+        <v>4200</v>
+      </c>
+      <c r="D14" s="11">
+        <v>300</v>
+      </c>
+      <c r="E14" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>2700</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" ref="C15:C21" si="1">C14+D14+$H$6</f>
+        <v>4800</v>
+      </c>
+      <c r="D15" s="11">
+        <v>300</v>
+      </c>
+      <c r="E15" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>2100</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
+      <c r="D16" s="11">
+        <v>300</v>
+      </c>
+      <c r="E16" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>1500</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="D17" s="11">
+        <v>300</v>
+      </c>
+      <c r="E17" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>900</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="1"/>
+        <v>6600</v>
+      </c>
+      <c r="D18" s="11">
+        <v>300</v>
+      </c>
+      <c r="E18" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>300</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>7200</v>
+      </c>
+      <c r="D19" s="11">
+        <v>300</v>
+      </c>
+      <c r="E19" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>-300</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="1"/>
+        <v>7800</v>
+      </c>
+      <c r="D20" s="11">
+        <v>300</v>
+      </c>
+      <c r="E20" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>-900</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="1"/>
+        <v>8400</v>
+      </c>
+      <c r="D21" s="11">
+        <v>300</v>
+      </c>
+      <c r="E21" s="11">
+        <f>$H$9-Таблица1[[#This Row],[Столбец1]]-Таблица1[[#This Row],[Столбец2]]</f>
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+    </row>
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+    </row>
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+    </row>
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+    </row>
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+    </row>
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+    </row>
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+    </row>
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+    </row>
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+    </row>
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+    </row>
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+    </row>
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+    </row>
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+    </row>
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+    </row>
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+    </row>
+    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+    </row>
+    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+    </row>
+    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+    </row>
+    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+    </row>
+    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+    </row>
+    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+    </row>
+    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+    </row>
+    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+    </row>
+    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+    </row>
+    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+    </row>
+    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+    </row>
+    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+    </row>
+    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+    </row>
+    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+    </row>
+    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+    </row>
+    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+    </row>
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+    </row>
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+    </row>
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+    </row>
+    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+    </row>
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+    </row>
+    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+    </row>
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+    </row>
+    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+    </row>
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+    </row>
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+    </row>
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+    </row>
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+    </row>
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+    </row>
+    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+    </row>
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+    </row>
+    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+    </row>
+    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+    </row>
+    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+    </row>
+    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+    </row>
+    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+    </row>
+    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+    </row>
+    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+    </row>
+    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+    </row>
+    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+    </row>
+    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+    </row>
+    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C234" s="12"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+    </row>
+    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+    </row>
+    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+    </row>
+    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+    </row>
+    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+    </row>
+    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+    </row>
+    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+    </row>
+    <row r="241" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+    </row>
+    <row r="242" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+    </row>
+    <row r="243" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+    </row>
+    <row r="244" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+    </row>
+    <row r="245" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+    </row>
+    <row r="246" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+    </row>
+    <row r="247" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+    </row>
+    <row r="248" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+    </row>
+    <row r="249" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+    </row>
+    <row r="250" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+    </row>
+    <row r="251" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+    </row>
+    <row r="252" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12"/>
+    </row>
+    <row r="253" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
+    </row>
+    <row r="254" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+    </row>
+    <row r="255" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12"/>
+    </row>
+    <row r="256" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+    </row>
+    <row r="257" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
+    </row>
+    <row r="258" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
+    </row>
+    <row r="259" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
+    </row>
+    <row r="260" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+    </row>
+    <row r="261" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+    </row>
+    <row r="262" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+    </row>
+    <row r="263" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
+    </row>
+    <row r="264" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12"/>
+    </row>
+    <row r="265" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+    </row>
+    <row r="266" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
+      <c r="F266" s="12"/>
+    </row>
+    <row r="267" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12"/>
+    </row>
+    <row r="268" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C268" s="12"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12"/>
+    </row>
+    <row r="269" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
+    </row>
+    <row r="270" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
+    </row>
+    <row r="271" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C271" s="12"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12"/>
+    </row>
+    <row r="272" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C272" s="12"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
+      <c r="F272" s="12"/>
+    </row>
+    <row r="273" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C273" s="12"/>
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
+      <c r="F273" s="12"/>
+    </row>
+    <row r="274" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
+      <c r="F274" s="12"/>
+    </row>
+    <row r="275" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
+      <c r="F275" s="12"/>
+    </row>
+    <row r="276" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
+      <c r="F276" s="12"/>
+    </row>
+    <row r="277" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
+      <c r="F277" s="12"/>
+    </row>
+    <row r="278" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
+      <c r="F278" s="12"/>
+    </row>
+    <row r="279" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
+      <c r="F279" s="12"/>
+    </row>
+    <row r="280" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+      <c r="F280" s="12"/>
+    </row>
+    <row r="281" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
+      <c r="F281" s="12"/>
+    </row>
+    <row r="282" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
+      <c r="F282" s="12"/>
+    </row>
+    <row r="283" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
+      <c r="F283" s="12"/>
+    </row>
+    <row r="284" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
+      <c r="F284" s="12"/>
+    </row>
+    <row r="285" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
+      <c r="F285" s="12"/>
+    </row>
+    <row r="286" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
+      <c r="F286" s="12"/>
+    </row>
+    <row r="287" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+      <c r="F287" s="12"/>
+    </row>
+    <row r="288" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
+      <c r="F288" s="12"/>
+    </row>
+    <row r="289" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+      <c r="F289" s="12"/>
+    </row>
+    <row r="290" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
+      <c r="F290" s="12"/>
+    </row>
+    <row r="291" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+      <c r="F291" s="12"/>
+    </row>
+    <row r="292" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+      <c r="F292" s="12"/>
+    </row>
+    <row r="293" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+      <c r="F293" s="12"/>
+    </row>
+    <row r="294" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
+      <c r="F294" s="12"/>
+    </row>
+    <row r="295" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
+      <c r="F295" s="12"/>
+    </row>
+    <row r="296" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+      <c r="F296" s="12"/>
+    </row>
+    <row r="297" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
+      <c r="F297" s="12"/>
+    </row>
+    <row r="298" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+      <c r="F298" s="12"/>
+    </row>
+    <row r="299" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
+      <c r="F299" s="12"/>
+    </row>
+    <row r="300" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C300" s="12"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
+      <c r="F300" s="12"/>
+    </row>
+    <row r="301" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
+    </row>
+    <row r="302" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
+      <c r="F302" s="12"/>
+    </row>
+    <row r="303" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C303" s="12"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
+      <c r="F303" s="12"/>
+    </row>
+    <row r="304" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
+      <c r="F304" s="12"/>
+    </row>
+    <row r="305" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C305" s="12"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
+      <c r="F305" s="12"/>
+    </row>
+    <row r="306" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
+      <c r="F306" s="12"/>
+    </row>
+    <row r="307" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C307" s="12"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
+      <c r="F307" s="12"/>
+    </row>
+    <row r="308" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C308" s="12"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
+      <c r="F308" s="12"/>
+    </row>
+    <row r="309" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C309" s="12"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="12"/>
+      <c r="F309" s="12"/>
+    </row>
+    <row r="310" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C310" s="12"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
+      <c r="F310" s="12"/>
+    </row>
+    <row r="311" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
+    </row>
+    <row r="312" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C312" s="12"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="12"/>
+      <c r="F312" s="12"/>
+    </row>
+    <row r="313" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C313" s="12"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="12"/>
+      <c r="F313" s="12"/>
+    </row>
+    <row r="314" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C314" s="12"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="12"/>
+      <c r="F314" s="12"/>
+    </row>
+    <row r="315" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C315" s="12"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
+      <c r="F315" s="12"/>
+    </row>
+    <row r="316" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C316" s="12"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="12"/>
+      <c r="F316" s="12"/>
+    </row>
+    <row r="317" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
+      <c r="F317" s="12"/>
+    </row>
+    <row r="318" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
+      <c r="F318" s="12"/>
+    </row>
+    <row r="319" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
+      <c r="F319" s="12"/>
+    </row>
+    <row r="320" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C320" s="12"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
+      <c r="F320" s="12"/>
+    </row>
+    <row r="321" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C321" s="12"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
+      <c r="F321" s="12"/>
+    </row>
+    <row r="322" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C322" s="12"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
+      <c r="F322" s="12"/>
+    </row>
+    <row r="323" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C323" s="12"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
+      <c r="F323" s="12"/>
+    </row>
+    <row r="324" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C324" s="12"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
+      <c r="F324" s="12"/>
+    </row>
+    <row r="325" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C325" s="12"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
+      <c r="F325" s="12"/>
+    </row>
+    <row r="326" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C326" s="12"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
+      <c r="F326" s="12"/>
+    </row>
+    <row r="327" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C327" s="12"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12"/>
+      <c r="F327" s="12"/>
+    </row>
+    <row r="328" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C328" s="12"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="12"/>
+      <c r="F328" s="12"/>
+    </row>
+    <row r="329" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C329" s="12"/>
+      <c r="D329" s="12"/>
+      <c r="E329" s="12"/>
+      <c r="F329" s="12"/>
+    </row>
+    <row r="330" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C330" s="12"/>
+      <c r="D330" s="12"/>
+      <c r="E330" s="12"/>
+      <c r="F330" s="12"/>
+    </row>
+    <row r="331" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C331" s="12"/>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12"/>
+      <c r="F331" s="12"/>
+    </row>
+    <row r="332" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C332" s="12"/>
+      <c r="D332" s="12"/>
+      <c r="E332" s="12"/>
+      <c r="F332" s="12"/>
+    </row>
+    <row r="333" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C333" s="12"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
+      <c r="F333" s="12"/>
+    </row>
+    <row r="334" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C334" s="12"/>
+      <c r="D334" s="12"/>
+      <c r="E334" s="12"/>
+      <c r="F334" s="12"/>
+    </row>
+    <row r="335" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C335" s="12"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
+      <c r="F335" s="12"/>
+    </row>
+    <row r="336" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C336" s="12"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
+      <c r="F336" s="12"/>
+    </row>
+    <row r="337" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C337" s="12"/>
+      <c r="D337" s="12"/>
+      <c r="E337" s="12"/>
+      <c r="F337" s="12"/>
+    </row>
+    <row r="338" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C338" s="12"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
+      <c r="F338" s="12"/>
+    </row>
+    <row r="339" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C339" s="12"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
+      <c r="F339" s="12"/>
+    </row>
+    <row r="340" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C340" s="12"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
+      <c r="F340" s="12"/>
+    </row>
+    <row r="341" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C341" s="12"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
+      <c r="F341" s="12"/>
+    </row>
+    <row r="342" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C342" s="12"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
+      <c r="F342" s="12"/>
+    </row>
+    <row r="343" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C343" s="12"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+    </row>
+    <row r="344" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C344" s="12"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
+      <c r="F344" s="12"/>
+    </row>
+    <row r="345" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C345" s="12"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
+      <c r="F345" s="12"/>
+    </row>
+    <row r="346" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C346" s="12"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
+      <c r="F346" s="12"/>
+    </row>
+    <row r="347" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
+      <c r="F347" s="12"/>
+    </row>
+    <row r="348" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
+      <c r="F348" s="12"/>
+    </row>
+    <row r="349" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
+      <c r="F349" s="12"/>
+    </row>
+    <row r="350" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
+      <c r="F350" s="12"/>
+    </row>
+    <row r="351" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
+      <c r="F351" s="12"/>
+    </row>
+    <row r="352" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
+      <c r="F352" s="12"/>
+    </row>
+    <row r="353" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="12"/>
+      <c r="F353" s="12"/>
+    </row>
+    <row r="354" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="12"/>
+      <c r="F354" s="12"/>
+    </row>
+    <row r="355" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="12"/>
+      <c r="F355" s="12"/>
+    </row>
+    <row r="356" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="12"/>
+      <c r="F356" s="12"/>
+    </row>
+    <row r="357" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="12"/>
+      <c r="F357" s="12"/>
+    </row>
+    <row r="358" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
+      <c r="F358" s="12"/>
+    </row>
+    <row r="359" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
+      <c r="F359" s="12"/>
+    </row>
+    <row r="360" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
+      <c r="F360" s="12"/>
+    </row>
+    <row r="361" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="12"/>
+      <c r="F361" s="12"/>
+    </row>
+    <row r="362" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="12"/>
+      <c r="F362" s="12"/>
+    </row>
+    <row r="363" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
+      <c r="F363" s="12"/>
+    </row>
+    <row r="364" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12"/>
+      <c r="F364" s="12"/>
+    </row>
+    <row r="365" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12"/>
+      <c r="F365" s="12"/>
+    </row>
+    <row r="366" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12"/>
+      <c r="F366" s="12"/>
+    </row>
+    <row r="367" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
+      <c r="F367" s="12"/>
+    </row>
+    <row r="368" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
+      <c r="F368" s="12"/>
+    </row>
+    <row r="369" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12"/>
+      <c r="F369" s="12"/>
+    </row>
+    <row r="370" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
+      <c r="F370" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/perf calculations.xlsx
+++ b/perf calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijsemin/WorkFolder/Performance/ProjBuff/PerfProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\PerfProject\PerfProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD3AEE6-3865-6344-9E15-9EED42A9D1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3A0D7-AAD9-46FD-88FB-C05B43DFA35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="6315" windowWidth="23610" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -249,10 +242,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Контрольная ячейка" xfId="2" builtinId="23"/>
-    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Пояснение" xfId="3" builtinId="53"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -359,13 +352,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DB3CCB5-6D61-3C41-8248-8348E1BB57B3}" name="Таблица1" displayName="Таблица1" ref="C5:F38" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DB3CCB5-6D61-3C41-8248-8348E1BB57B3}" name="Таблица1" displayName="Таблица1" ref="C5:F38" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="C5:F38" xr:uid="{1DB3CCB5-6D61-3C41-8248-8348E1BB57B3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3A364823-56D4-0844-8D58-03BE0F6BA7EB}" name="Столбец1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{6A2AD248-9A9A-FC4A-B3D8-544A4CD5A0D1}" name="Столбец2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{CBAF78D3-9352-5A4A-81D5-ABDF5B3DAF98}" name="Столбец3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{29FC4B20-1F52-BD48-AB43-EA4F4A8961C3}" name="Столбец4" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3A364823-56D4-0844-8D58-03BE0F6BA7EB}" name="Столбец1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6A2AD248-9A9A-FC4A-B3D8-544A4CD5A0D1}" name="Столбец2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CBAF78D3-9352-5A4A-81D5-ABDF5B3DAF98}" name="Столбец3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{29FC4B20-1F52-BD48-AB43-EA4F4A8961C3}" name="Столбец4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,25 +629,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A10" zoomScale="139" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -670,7 +663,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -680,7 +673,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -703,7 +696,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -732,7 +725,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -761,7 +754,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -790,7 +783,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -819,7 +812,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -847,16 +840,16 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
@@ -879,12 +872,13 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3">
-        <v>750</v>
+        <f>750/4</f>
+        <v>187.5</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -899,27 +893,28 @@
       </c>
       <c r="F12" s="6">
         <f>(B12*$J$12)/E12</f>
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="G12" s="6">
         <f>F12/60</f>
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="3">
-        <v>3000</v>
+        <f>3000/4</f>
+        <v>750</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -934,21 +929,22 @@
       </c>
       <c r="F13" s="6">
         <f>(B13*$J$12)/E13</f>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" ref="G13:G16" si="5">F13/60</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>4500</v>
+        <f>4500/4</f>
+        <v>1125</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -963,21 +959,22 @@
       </c>
       <c r="F14" s="6">
         <f>(B14*$J$12)/E14</f>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3">
-        <v>675</v>
+        <f>675/4</f>
+        <v>168.75</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -992,21 +989,22 @@
       </c>
       <c r="F15" s="6">
         <f>(B15*$J$12)/E15</f>
-        <v>67.5</v>
+        <v>33.75</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="5"/>
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3">
-        <v>7500</v>
+        <f>7500/4</f>
+        <v>1875</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
@@ -1021,11 +1019,11 @@
       </c>
       <c r="F16" s="6">
         <f>(B16*$J$12)/E16</f>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="5"/>
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
@@ -1038,18 +1036,18 @@
   <dimension ref="B5:H370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1120,12 +1118,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" s="11">
-        <f t="shared" ref="C9:C19" si="0">C8+D8+$H$6</f>
+        <f t="shared" ref="C9:C14" si="0">C8+D8+$H$6</f>
         <v>1200</v>
       </c>
       <c r="D9" s="11">
@@ -1140,7 +1138,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -1157,7 +1155,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1174,7 +1172,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1191,7 +1189,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -1208,7 +1206,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8</v>
       </c>
@@ -1225,7 +1223,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
@@ -1242,7 +1240,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
@@ -1259,7 +1257,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>11</v>
       </c>
@@ -1276,7 +1274,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>12</v>
       </c>
@@ -1293,7 +1291,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>13</v>
       </c>
@@ -1310,7 +1308,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>14</v>
       </c>
@@ -1327,7 +1325,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>15</v>
       </c>
@@ -1344,2095 +1342,2095 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C170" s="12"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C173" s="12"/>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C174" s="12"/>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C175" s="12"/>
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184" s="12"/>
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185" s="12"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C186" s="12"/>
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C188" s="12"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C189" s="12"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C191" s="12"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C194" s="12"/>
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C196" s="12"/>
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
       <c r="E197" s="12"/>
       <c r="F197" s="12"/>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C200" s="12"/>
       <c r="D200" s="12"/>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C201" s="12"/>
       <c r="D201" s="12"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C202" s="12"/>
       <c r="D202" s="12"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C204" s="12"/>
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C205" s="12"/>
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C206" s="12"/>
       <c r="D206" s="12"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C207" s="12"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C208" s="12"/>
       <c r="D208" s="12"/>
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C209" s="12"/>
       <c r="D209" s="12"/>
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C211" s="12"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C212" s="12"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C213" s="12"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C214" s="12"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C216" s="12"/>
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C217" s="12"/>
       <c r="D217" s="12"/>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C218" s="12"/>
       <c r="D218" s="12"/>
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C221" s="12"/>
       <c r="D221" s="12"/>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C222" s="12"/>
       <c r="D222" s="12"/>
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C223" s="12"/>
       <c r="D223" s="12"/>
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C224" s="12"/>
       <c r="D224" s="12"/>
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C225" s="12"/>
       <c r="D225" s="12"/>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
       <c r="E226" s="12"/>
       <c r="F226" s="12"/>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C227" s="12"/>
       <c r="D227" s="12"/>
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C228" s="12"/>
       <c r="D228" s="12"/>
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C229" s="12"/>
       <c r="D229" s="12"/>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C230" s="12"/>
       <c r="D230" s="12"/>
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C231" s="12"/>
       <c r="D231" s="12"/>
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C232" s="12"/>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C233" s="12"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C234" s="12"/>
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C236" s="12"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
       <c r="F237" s="12"/>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C238" s="12"/>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
       <c r="F238" s="12"/>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C239" s="12"/>
       <c r="D239" s="12"/>
       <c r="E239" s="12"/>
       <c r="F239" s="12"/>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C240" s="12"/>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
       <c r="F240" s="12"/>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C241" s="12"/>
       <c r="D241" s="12"/>
       <c r="E241" s="12"/>
       <c r="F241" s="12"/>
     </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C242" s="12"/>
       <c r="D242" s="12"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
     </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C243" s="12"/>
       <c r="D243" s="12"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
     </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C244" s="12"/>
       <c r="D244" s="12"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
     </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C245" s="12"/>
       <c r="D245" s="12"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
     </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C246" s="12"/>
       <c r="D246" s="12"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
     </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C247" s="12"/>
       <c r="D247" s="12"/>
       <c r="E247" s="12"/>
       <c r="F247" s="12"/>
     </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C248" s="12"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
     </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
     </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C250" s="12"/>
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
       <c r="F250" s="12"/>
     </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C251" s="12"/>
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
       <c r="F251" s="12"/>
     </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C252" s="12"/>
       <c r="D252" s="12"/>
       <c r="E252" s="12"/>
       <c r="F252" s="12"/>
     </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C253" s="12"/>
       <c r="D253" s="12"/>
       <c r="E253" s="12"/>
       <c r="F253" s="12"/>
     </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C254" s="12"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
       <c r="F254" s="12"/>
     </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C255" s="12"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
       <c r="F255" s="12"/>
     </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C256" s="12"/>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
       <c r="F256" s="12"/>
     </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C257" s="12"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
       <c r="F257" s="12"/>
     </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C258" s="12"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
       <c r="F258" s="12"/>
     </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
       <c r="F259" s="12"/>
     </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C260" s="12"/>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
       <c r="F260" s="12"/>
     </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
       <c r="F261" s="12"/>
     </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
       <c r="F262" s="12"/>
     </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C263" s="12"/>
       <c r="D263" s="12"/>
       <c r="E263" s="12"/>
       <c r="F263" s="12"/>
     </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C264" s="12"/>
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
       <c r="F264" s="12"/>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C265" s="12"/>
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
       <c r="F265" s="12"/>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C266" s="12"/>
       <c r="D266" s="12"/>
       <c r="E266" s="12"/>
       <c r="F266" s="12"/>
     </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C267" s="12"/>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
       <c r="F267" s="12"/>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C268" s="12"/>
       <c r="D268" s="12"/>
       <c r="E268" s="12"/>
       <c r="F268" s="12"/>
     </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C269" s="12"/>
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
       <c r="F269" s="12"/>
     </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C270" s="12"/>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
       <c r="F270" s="12"/>
     </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
       <c r="F271" s="12"/>
     </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C272" s="12"/>
       <c r="D272" s="12"/>
       <c r="E272" s="12"/>
       <c r="F272" s="12"/>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
       <c r="F273" s="12"/>
     </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C274" s="12"/>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
       <c r="F274" s="12"/>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C275" s="12"/>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
       <c r="F275" s="12"/>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C276" s="12"/>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
       <c r="F276" s="12"/>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C277" s="12"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
       <c r="F277" s="12"/>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C278" s="12"/>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C279" s="12"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C280" s="12"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C281" s="12"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C282" s="12"/>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C283" s="12"/>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C284" s="12"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C285" s="12"/>
       <c r="D285" s="12"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C286" s="12"/>
       <c r="D286" s="12"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C287" s="12"/>
       <c r="D287" s="12"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C288" s="12"/>
       <c r="D288" s="12"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
     </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C289" s="12"/>
       <c r="D289" s="12"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
     </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C290" s="12"/>
       <c r="D290" s="12"/>
       <c r="E290" s="12"/>
       <c r="F290" s="12"/>
     </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C291" s="12"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
     </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C292" s="12"/>
       <c r="D292" s="12"/>
       <c r="E292" s="12"/>
       <c r="F292" s="12"/>
     </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C293" s="12"/>
       <c r="D293" s="12"/>
       <c r="E293" s="12"/>
       <c r="F293" s="12"/>
     </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C294" s="12"/>
       <c r="D294" s="12"/>
       <c r="E294" s="12"/>
       <c r="F294" s="12"/>
     </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
       <c r="F295" s="12"/>
     </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C296" s="12"/>
       <c r="D296" s="12"/>
       <c r="E296" s="12"/>
       <c r="F296" s="12"/>
     </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C297" s="12"/>
       <c r="D297" s="12"/>
       <c r="E297" s="12"/>
       <c r="F297" s="12"/>
     </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C298" s="12"/>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
       <c r="F298" s="12"/>
     </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C299" s="12"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
       <c r="F299" s="12"/>
     </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C300" s="12"/>
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
       <c r="F300" s="12"/>
     </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C301" s="12"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
       <c r="F301" s="12"/>
     </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C302" s="12"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
       <c r="F302" s="12"/>
     </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C303" s="12"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
       <c r="F303" s="12"/>
     </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C304" s="12"/>
       <c r="D304" s="12"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
     </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C305" s="12"/>
       <c r="D305" s="12"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
     </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C306" s="12"/>
       <c r="D306" s="12"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
     </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C307" s="12"/>
       <c r="D307" s="12"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
     </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C308" s="12"/>
       <c r="D308" s="12"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
     </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C309" s="12"/>
       <c r="D309" s="12"/>
       <c r="E309" s="12"/>
       <c r="F309" s="12"/>
     </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C310" s="12"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
     </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C311" s="12"/>
       <c r="D311" s="12"/>
       <c r="E311" s="12"/>
       <c r="F311" s="12"/>
     </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C312" s="12"/>
       <c r="D312" s="12"/>
       <c r="E312" s="12"/>
       <c r="F312" s="12"/>
     </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C313" s="12"/>
       <c r="D313" s="12"/>
       <c r="E313" s="12"/>
       <c r="F313" s="12"/>
     </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C314" s="12"/>
       <c r="D314" s="12"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
     </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C315" s="12"/>
       <c r="D315" s="12"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
     </row>
-    <row r="316" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C316" s="12"/>
       <c r="D316" s="12"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
     </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C317" s="12"/>
       <c r="D317" s="12"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
     </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C318" s="12"/>
       <c r="D318" s="12"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
     </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C319" s="12"/>
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
       <c r="F319" s="12"/>
     </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C320" s="12"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
     </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C321" s="12"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
       <c r="F321" s="12"/>
     </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C322" s="12"/>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
       <c r="F322" s="12"/>
     </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C323" s="12"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
       <c r="F323" s="12"/>
     </row>
-    <row r="324" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
       <c r="F324" s="12"/>
     </row>
-    <row r="325" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C325" s="12"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
       <c r="F325" s="12"/>
     </row>
-    <row r="326" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C326" s="12"/>
       <c r="D326" s="12"/>
       <c r="E326" s="12"/>
       <c r="F326" s="12"/>
     </row>
-    <row r="327" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
     </row>
-    <row r="328" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C328" s="12"/>
       <c r="D328" s="12"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
     </row>
-    <row r="329" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
     </row>
-    <row r="330" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C330" s="12"/>
       <c r="D330" s="12"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
     </row>
-    <row r="331" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C331" s="12"/>
       <c r="D331" s="12"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
     </row>
-    <row r="332" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C332" s="12"/>
       <c r="D332" s="12"/>
       <c r="E332" s="12"/>
       <c r="F332" s="12"/>
     </row>
-    <row r="333" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
     </row>
-    <row r="334" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
       <c r="E334" s="12"/>
       <c r="F334" s="12"/>
     </row>
-    <row r="335" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
       <c r="E335" s="12"/>
       <c r="F335" s="12"/>
     </row>
-    <row r="336" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
       <c r="E336" s="12"/>
       <c r="F336" s="12"/>
     </row>
-    <row r="337" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
       <c r="F337" s="12"/>
     </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
       <c r="E338" s="12"/>
       <c r="F338" s="12"/>
     </row>
-    <row r="339" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
     </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
     </row>
-    <row r="341" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C341" s="12"/>
       <c r="D341" s="12"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
     </row>
-    <row r="342" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C342" s="12"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
     </row>
-    <row r="343" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C343" s="12"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
     </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C344" s="12"/>
       <c r="D344" s="12"/>
       <c r="E344" s="12"/>
       <c r="F344" s="12"/>
     </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
     </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C346" s="12"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
       <c r="F346" s="12"/>
     </row>
-    <row r="347" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C347" s="12"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
       <c r="F347" s="12"/>
     </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C348" s="12"/>
       <c r="D348" s="12"/>
       <c r="E348" s="12"/>
       <c r="F348" s="12"/>
     </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C349" s="12"/>
       <c r="D349" s="12"/>
       <c r="E349" s="12"/>
       <c r="F349" s="12"/>
     </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C350" s="12"/>
       <c r="D350" s="12"/>
       <c r="E350" s="12"/>
       <c r="F350" s="12"/>
     </row>
-    <row r="351" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C351" s="12"/>
       <c r="D351" s="12"/>
       <c r="E351" s="12"/>
       <c r="F351" s="12"/>
     </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C352" s="12"/>
       <c r="D352" s="12"/>
       <c r="E352" s="12"/>
       <c r="F352" s="12"/>
     </row>
-    <row r="353" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C353" s="12"/>
       <c r="D353" s="12"/>
       <c r="E353" s="12"/>
       <c r="F353" s="12"/>
     </row>
-    <row r="354" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
       <c r="E354" s="12"/>
       <c r="F354" s="12"/>
     </row>
-    <row r="355" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C355" s="12"/>
       <c r="D355" s="12"/>
       <c r="E355" s="12"/>
       <c r="F355" s="12"/>
     </row>
-    <row r="356" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C356" s="12"/>
       <c r="D356" s="12"/>
       <c r="E356" s="12"/>
       <c r="F356" s="12"/>
     </row>
-    <row r="357" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C357" s="12"/>
       <c r="D357" s="12"/>
       <c r="E357" s="12"/>
       <c r="F357" s="12"/>
     </row>
-    <row r="358" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C358" s="12"/>
       <c r="D358" s="12"/>
       <c r="E358" s="12"/>
       <c r="F358" s="12"/>
     </row>
-    <row r="359" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C359" s="12"/>
       <c r="D359" s="12"/>
       <c r="E359" s="12"/>
       <c r="F359" s="12"/>
     </row>
-    <row r="360" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C360" s="12"/>
       <c r="D360" s="12"/>
       <c r="E360" s="12"/>
       <c r="F360" s="12"/>
     </row>
-    <row r="361" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C361" s="12"/>
       <c r="D361" s="12"/>
       <c r="E361" s="12"/>
       <c r="F361" s="12"/>
     </row>
-    <row r="362" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C362" s="12"/>
       <c r="D362" s="12"/>
       <c r="E362" s="12"/>
       <c r="F362" s="12"/>
     </row>
-    <row r="363" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C363" s="12"/>
       <c r="D363" s="12"/>
       <c r="E363" s="12"/>
       <c r="F363" s="12"/>
     </row>
-    <row r="364" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C364" s="12"/>
       <c r="D364" s="12"/>
       <c r="E364" s="12"/>
       <c r="F364" s="12"/>
     </row>
-    <row r="365" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C365" s="12"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
       <c r="F365" s="12"/>
     </row>
-    <row r="366" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C366" s="12"/>
       <c r="D366" s="12"/>
       <c r="E366" s="12"/>
       <c r="F366" s="12"/>
     </row>
-    <row r="367" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C367" s="12"/>
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
       <c r="F367" s="12"/>
     </row>
-    <row r="368" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C368" s="12"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
       <c r="F368" s="12"/>
     </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C369" s="12"/>
       <c r="D369" s="12"/>
       <c r="E369" s="12"/>
       <c r="F369" s="12"/>
     </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C370" s="12"/>
       <c r="D370" s="12"/>
       <c r="E370" s="12"/>

--- a/perf calculations.xlsx
+++ b/perf calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\PerfProject\PerfProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijsemin/WorkFolder/Performance/ProjBuff/PerfProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3A0D7-AAD9-46FD-88FB-C05B43DFA35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA06356-C6AD-7C4C-A1F3-565099AD40C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="6315" windowWidth="23610" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Интенсивность</t>
   </si>
@@ -110,6 +117,9 @@
   </si>
   <si>
     <t>Общая длительность теста</t>
+  </si>
+  <si>
+    <t>Поделить нагрузку на</t>
   </si>
 </sst>
 </file>
@@ -242,10 +252,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Контрольная ячейка" xfId="2" builtinId="23"/>
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Пояснение" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -627,27 +637,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="139" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="139" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -663,7 +673,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -673,7 +683,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -696,7 +706,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -725,7 +735,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -754,7 +764,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -783,7 +793,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -812,7 +822,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -840,16 +850,16 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
@@ -872,13 +882,13 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3">
-        <f>750/4</f>
-        <v>187.5</v>
+        <f>750/B20</f>
+        <v>750</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -893,11 +903,11 @@
       </c>
       <c r="F12" s="6">
         <f>(B12*$J$12)/E12</f>
-        <v>37.5</v>
+        <v>150</v>
       </c>
       <c r="G12" s="6">
         <f>F12/60</f>
-        <v>0.625</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -908,13 +918,13 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="3">
-        <f>3000/4</f>
-        <v>750</v>
+        <f>3000/B20</f>
+        <v>3000</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -929,22 +939,22 @@
       </c>
       <c r="F13" s="6">
         <f>(B13*$J$12)/E13</f>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" ref="G13:G16" si="5">F13/60</f>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="3">
-        <f>4500/4</f>
-        <v>1125</v>
+        <f>4500/B20</f>
+        <v>4500</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -959,22 +969,22 @@
       </c>
       <c r="F14" s="6">
         <f>(B14*$J$12)/E14</f>
-        <v>225</v>
+        <v>900</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="5"/>
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3">
-        <f>675/4</f>
-        <v>168.75</v>
+        <f>675/B20</f>
+        <v>675</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -989,22 +999,22 @@
       </c>
       <c r="F15" s="6">
         <f>(B15*$J$12)/E15</f>
-        <v>33.75</v>
+        <v>135</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="5"/>
-        <v>0.5625</v>
+        <v>2.25</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3">
-        <f>7500/4</f>
-        <v>1875</v>
+        <f>7500/B20</f>
+        <v>7500</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
@@ -1015,19 +1025,30 @@
       </c>
       <c r="E16" s="3">
         <f>ROUNDUP((B16*$J$12)/D16,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="6">
         <f>(B16*$J$12)/E16</f>
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="5"/>
-        <v>6.25</v>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1035,19 +1056,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC460A58-C005-F043-B821-E7661614BE14}">
   <dimension ref="B5:H370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1098,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1118,7 +1139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -1155,7 +1176,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1172,7 +1193,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1189,7 +1210,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -1206,7 +1227,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -1223,7 +1244,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -1240,7 +1261,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -1257,7 +1278,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11</v>
       </c>
@@ -1274,7 +1295,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>12</v>
       </c>
@@ -1291,7 +1312,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>13</v>
       </c>
@@ -1308,7 +1329,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>14</v>
       </c>
@@ -1325,7 +1346,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>15</v>
       </c>
@@ -1342,2095 +1363,2095 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="12"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="12"/>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="12"/>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="12"/>
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" s="12"/>
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" s="12"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" s="12"/>
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" s="12"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" s="12"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" s="12"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C194" s="12"/>
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C196" s="12"/>
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
       <c r="E197" s="12"/>
       <c r="F197" s="12"/>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C200" s="12"/>
       <c r="D200" s="12"/>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C201" s="12"/>
       <c r="D201" s="12"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C202" s="12"/>
       <c r="D202" s="12"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C204" s="12"/>
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C205" s="12"/>
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C206" s="12"/>
       <c r="D206" s="12"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C207" s="12"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C208" s="12"/>
       <c r="D208" s="12"/>
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C209" s="12"/>
       <c r="D209" s="12"/>
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C211" s="12"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C212" s="12"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C213" s="12"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C214" s="12"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C216" s="12"/>
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C217" s="12"/>
       <c r="D217" s="12"/>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C218" s="12"/>
       <c r="D218" s="12"/>
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C221" s="12"/>
       <c r="D221" s="12"/>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C222" s="12"/>
       <c r="D222" s="12"/>
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C223" s="12"/>
       <c r="D223" s="12"/>
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C224" s="12"/>
       <c r="D224" s="12"/>
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C225" s="12"/>
       <c r="D225" s="12"/>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
       <c r="E226" s="12"/>
       <c r="F226" s="12"/>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C227" s="12"/>
       <c r="D227" s="12"/>
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C228" s="12"/>
       <c r="D228" s="12"/>
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C229" s="12"/>
       <c r="D229" s="12"/>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C230" s="12"/>
       <c r="D230" s="12"/>
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C231" s="12"/>
       <c r="D231" s="12"/>
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C232" s="12"/>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C233" s="12"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C234" s="12"/>
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C236" s="12"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
       <c r="F237" s="12"/>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C238" s="12"/>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
       <c r="F238" s="12"/>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C239" s="12"/>
       <c r="D239" s="12"/>
       <c r="E239" s="12"/>
       <c r="F239" s="12"/>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C240" s="12"/>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
       <c r="F240" s="12"/>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C241" s="12"/>
       <c r="D241" s="12"/>
       <c r="E241" s="12"/>
       <c r="F241" s="12"/>
     </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C242" s="12"/>
       <c r="D242" s="12"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
     </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C243" s="12"/>
       <c r="D243" s="12"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
     </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C244" s="12"/>
       <c r="D244" s="12"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
     </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C245" s="12"/>
       <c r="D245" s="12"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
     </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C246" s="12"/>
       <c r="D246" s="12"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
     </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C247" s="12"/>
       <c r="D247" s="12"/>
       <c r="E247" s="12"/>
       <c r="F247" s="12"/>
     </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C248" s="12"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
     </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
     </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C250" s="12"/>
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
       <c r="F250" s="12"/>
     </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C251" s="12"/>
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
       <c r="F251" s="12"/>
     </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C252" s="12"/>
       <c r="D252" s="12"/>
       <c r="E252" s="12"/>
       <c r="F252" s="12"/>
     </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C253" s="12"/>
       <c r="D253" s="12"/>
       <c r="E253" s="12"/>
       <c r="F253" s="12"/>
     </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C254" s="12"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
       <c r="F254" s="12"/>
     </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C255" s="12"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
       <c r="F255" s="12"/>
     </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C256" s="12"/>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
       <c r="F256" s="12"/>
     </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C257" s="12"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
       <c r="F257" s="12"/>
     </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C258" s="12"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
       <c r="F258" s="12"/>
     </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
       <c r="F259" s="12"/>
     </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C260" s="12"/>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
       <c r="F260" s="12"/>
     </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
       <c r="F261" s="12"/>
     </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
       <c r="F262" s="12"/>
     </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C263" s="12"/>
       <c r="D263" s="12"/>
       <c r="E263" s="12"/>
       <c r="F263" s="12"/>
     </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C264" s="12"/>
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
       <c r="F264" s="12"/>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C265" s="12"/>
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
       <c r="F265" s="12"/>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C266" s="12"/>
       <c r="D266" s="12"/>
       <c r="E266" s="12"/>
       <c r="F266" s="12"/>
     </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C267" s="12"/>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
       <c r="F267" s="12"/>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C268" s="12"/>
       <c r="D268" s="12"/>
       <c r="E268" s="12"/>
       <c r="F268" s="12"/>
     </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C269" s="12"/>
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
       <c r="F269" s="12"/>
     </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C270" s="12"/>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
       <c r="F270" s="12"/>
     </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
       <c r="F271" s="12"/>
     </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C272" s="12"/>
       <c r="D272" s="12"/>
       <c r="E272" s="12"/>
       <c r="F272" s="12"/>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
       <c r="F273" s="12"/>
     </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C274" s="12"/>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
       <c r="F274" s="12"/>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C275" s="12"/>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
       <c r="F275" s="12"/>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C276" s="12"/>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
       <c r="F276" s="12"/>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C277" s="12"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
       <c r="F277" s="12"/>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C278" s="12"/>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C279" s="12"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C280" s="12"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C281" s="12"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C282" s="12"/>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C283" s="12"/>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C284" s="12"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C285" s="12"/>
       <c r="D285" s="12"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C286" s="12"/>
       <c r="D286" s="12"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C287" s="12"/>
       <c r="D287" s="12"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C288" s="12"/>
       <c r="D288" s="12"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
     </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C289" s="12"/>
       <c r="D289" s="12"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
     </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C290" s="12"/>
       <c r="D290" s="12"/>
       <c r="E290" s="12"/>
       <c r="F290" s="12"/>
     </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C291" s="12"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
     </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C292" s="12"/>
       <c r="D292" s="12"/>
       <c r="E292" s="12"/>
       <c r="F292" s="12"/>
     </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C293" s="12"/>
       <c r="D293" s="12"/>
       <c r="E293" s="12"/>
       <c r="F293" s="12"/>
     </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C294" s="12"/>
       <c r="D294" s="12"/>
       <c r="E294" s="12"/>
       <c r="F294" s="12"/>
     </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
       <c r="F295" s="12"/>
     </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C296" s="12"/>
       <c r="D296" s="12"/>
       <c r="E296" s="12"/>
       <c r="F296" s="12"/>
     </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C297" s="12"/>
       <c r="D297" s="12"/>
       <c r="E297" s="12"/>
       <c r="F297" s="12"/>
     </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C298" s="12"/>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
       <c r="F298" s="12"/>
     </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C299" s="12"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
       <c r="F299" s="12"/>
     </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C300" s="12"/>
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
       <c r="F300" s="12"/>
     </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C301" s="12"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
       <c r="F301" s="12"/>
     </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C302" s="12"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
       <c r="F302" s="12"/>
     </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C303" s="12"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
       <c r="F303" s="12"/>
     </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C304" s="12"/>
       <c r="D304" s="12"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
     </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C305" s="12"/>
       <c r="D305" s="12"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
     </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C306" s="12"/>
       <c r="D306" s="12"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
     </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C307" s="12"/>
       <c r="D307" s="12"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
     </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C308" s="12"/>
       <c r="D308" s="12"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
     </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C309" s="12"/>
       <c r="D309" s="12"/>
       <c r="E309" s="12"/>
       <c r="F309" s="12"/>
     </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C310" s="12"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
     </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C311" s="12"/>
       <c r="D311" s="12"/>
       <c r="E311" s="12"/>
       <c r="F311" s="12"/>
     </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C312" s="12"/>
       <c r="D312" s="12"/>
       <c r="E312" s="12"/>
       <c r="F312" s="12"/>
     </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C313" s="12"/>
       <c r="D313" s="12"/>
       <c r="E313" s="12"/>
       <c r="F313" s="12"/>
     </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C314" s="12"/>
       <c r="D314" s="12"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
     </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C315" s="12"/>
       <c r="D315" s="12"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
     </row>
-    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C316" s="12"/>
       <c r="D316" s="12"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
     </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C317" s="12"/>
       <c r="D317" s="12"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
     </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C318" s="12"/>
       <c r="D318" s="12"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
     </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C319" s="12"/>
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
       <c r="F319" s="12"/>
     </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C320" s="12"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
     </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C321" s="12"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
       <c r="F321" s="12"/>
     </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C322" s="12"/>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
       <c r="F322" s="12"/>
     </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C323" s="12"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
       <c r="F323" s="12"/>
     </row>
-    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
       <c r="F324" s="12"/>
     </row>
-    <row r="325" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C325" s="12"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
       <c r="F325" s="12"/>
     </row>
-    <row r="326" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C326" s="12"/>
       <c r="D326" s="12"/>
       <c r="E326" s="12"/>
       <c r="F326" s="12"/>
     </row>
-    <row r="327" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
     </row>
-    <row r="328" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C328" s="12"/>
       <c r="D328" s="12"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
     </row>
-    <row r="329" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
     </row>
-    <row r="330" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C330" s="12"/>
       <c r="D330" s="12"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
     </row>
-    <row r="331" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C331" s="12"/>
       <c r="D331" s="12"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
     </row>
-    <row r="332" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C332" s="12"/>
       <c r="D332" s="12"/>
       <c r="E332" s="12"/>
       <c r="F332" s="12"/>
     </row>
-    <row r="333" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
     </row>
-    <row r="334" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
       <c r="E334" s="12"/>
       <c r="F334" s="12"/>
     </row>
-    <row r="335" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
       <c r="E335" s="12"/>
       <c r="F335" s="12"/>
     </row>
-    <row r="336" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
       <c r="E336" s="12"/>
       <c r="F336" s="12"/>
     </row>
-    <row r="337" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
       <c r="F337" s="12"/>
     </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
       <c r="E338" s="12"/>
       <c r="F338" s="12"/>
     </row>
-    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
     </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
     </row>
-    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C341" s="12"/>
       <c r="D341" s="12"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
     </row>
-    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C342" s="12"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
     </row>
-    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C343" s="12"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
     </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C344" s="12"/>
       <c r="D344" s="12"/>
       <c r="E344" s="12"/>
       <c r="F344" s="12"/>
     </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
     </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C346" s="12"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
       <c r="F346" s="12"/>
     </row>
-    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C347" s="12"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
       <c r="F347" s="12"/>
     </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C348" s="12"/>
       <c r="D348" s="12"/>
       <c r="E348" s="12"/>
       <c r="F348" s="12"/>
     </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C349" s="12"/>
       <c r="D349" s="12"/>
       <c r="E349" s="12"/>
       <c r="F349" s="12"/>
     </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C350" s="12"/>
       <c r="D350" s="12"/>
       <c r="E350" s="12"/>
       <c r="F350" s="12"/>
     </row>
-    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C351" s="12"/>
       <c r="D351" s="12"/>
       <c r="E351" s="12"/>
       <c r="F351" s="12"/>
     </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C352" s="12"/>
       <c r="D352" s="12"/>
       <c r="E352" s="12"/>
       <c r="F352" s="12"/>
     </row>
-    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C353" s="12"/>
       <c r="D353" s="12"/>
       <c r="E353" s="12"/>
       <c r="F353" s="12"/>
     </row>
-    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
       <c r="E354" s="12"/>
       <c r="F354" s="12"/>
     </row>
-    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C355" s="12"/>
       <c r="D355" s="12"/>
       <c r="E355" s="12"/>
       <c r="F355" s="12"/>
     </row>
-    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C356" s="12"/>
       <c r="D356" s="12"/>
       <c r="E356" s="12"/>
       <c r="F356" s="12"/>
     </row>
-    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C357" s="12"/>
       <c r="D357" s="12"/>
       <c r="E357" s="12"/>
       <c r="F357" s="12"/>
     </row>
-    <row r="358" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C358" s="12"/>
       <c r="D358" s="12"/>
       <c r="E358" s="12"/>
       <c r="F358" s="12"/>
     </row>
-    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C359" s="12"/>
       <c r="D359" s="12"/>
       <c r="E359" s="12"/>
       <c r="F359" s="12"/>
     </row>
-    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C360" s="12"/>
       <c r="D360" s="12"/>
       <c r="E360" s="12"/>
       <c r="F360" s="12"/>
     </row>
-    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C361" s="12"/>
       <c r="D361" s="12"/>
       <c r="E361" s="12"/>
       <c r="F361" s="12"/>
     </row>
-    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C362" s="12"/>
       <c r="D362" s="12"/>
       <c r="E362" s="12"/>
       <c r="F362" s="12"/>
     </row>
-    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C363" s="12"/>
       <c r="D363" s="12"/>
       <c r="E363" s="12"/>
       <c r="F363" s="12"/>
     </row>
-    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C364" s="12"/>
       <c r="D364" s="12"/>
       <c r="E364" s="12"/>
       <c r="F364" s="12"/>
     </row>
-    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C365" s="12"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
       <c r="F365" s="12"/>
     </row>
-    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C366" s="12"/>
       <c r="D366" s="12"/>
       <c r="E366" s="12"/>
       <c r="F366" s="12"/>
     </row>
-    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C367" s="12"/>
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
       <c r="F367" s="12"/>
     </row>
-    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C368" s="12"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
       <c r="F368" s="12"/>
     </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C369" s="12"/>
       <c r="D369" s="12"/>
       <c r="E369" s="12"/>
       <c r="F369" s="12"/>
     </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C370" s="12"/>
       <c r="D370" s="12"/>
       <c r="E370" s="12"/>
